--- a/data/output/FV2410_FV2404/UTILMD/55035.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18570" uniqueCount="1123">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18591" uniqueCount="1123">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3573,6 +3573,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U805" totalsRowShown="0">
+  <autoFilter ref="A1:U805"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3862,7 +3892,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U805"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -43156,5 +43189,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55035.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55035.xlsx
@@ -6397,7 +6397,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8503,7 +8503,7 @@
         <v>1024</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -8823,7 +8823,7 @@
         <v>1025</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -9027,7 +9027,7 @@
         <v>1024</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -9231,7 +9231,7 @@
         <v>1028</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -9435,7 +9435,7 @@
         <v>1030</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -9639,7 +9639,7 @@
         <v>1032</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -10447,7 +10447,7 @@
         <v>1035</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -11203,7 +11203,7 @@
         <v>1036</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -11623,7 +11623,7 @@
         <v>1039</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -12097,7 +12097,7 @@
         <v>1041</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -12291,54 +12291,54 @@
       </c>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5" t="s">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
       <c r="J116" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="K116" s="2" t="s">
         <v>1042</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O116" s="5" t="s">
+      <c r="O116" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5" t="s">
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
       <c r="U116" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="V116" s="5" t="s">
+      <c r="V116" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
         <v>1044</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -12701,7 +12701,7 @@
         <v>1045</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -13729,7 +13729,7 @@
         <v>1046</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -14553,7 +14553,7 @@
         <v>1046</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -15081,7 +15081,7 @@
         <v>1048</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -15777,7 +15777,7 @@
         <v>1024</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -16085,7 +16085,7 @@
         <v>1049</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -16455,7 +16455,7 @@
         <v>1052</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -17217,7 +17217,7 @@
         <v>1054</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -17651,7 +17651,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -18045,7 +18045,7 @@
         <v>1055</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -18353,7 +18353,7 @@
         <v>1056</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -19069,7 +19069,7 @@
         <v>1057</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -20093,7 +20093,7 @@
         <v>1059</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -20251,7 +20251,7 @@
         <v>1060</v>
       </c>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -20559,7 +20559,7 @@
         <v>1061</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -20823,7 +20823,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -21383,7 +21383,7 @@
         <v>1062</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -22033,7 +22033,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -22287,7 +22287,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -22709,7 +22709,7 @@
         <v>1066</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -23595,7 +23595,7 @@
         <v>1070</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -23795,7 +23795,7 @@
         <v>1070</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -24057,7 +24057,7 @@
         <v>1072</v>
       </c>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -24257,7 +24257,7 @@
         <v>1072</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -24457,7 +24457,7 @@
         <v>1073</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -24985,7 +24985,7 @@
         <v>1075</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -25397,7 +25397,7 @@
         <v>1076</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -25597,7 +25597,7 @@
         <v>1077</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -26259,7 +26259,7 @@
         <v>1057</v>
       </c>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -26569,7 +26569,7 @@
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -26781,7 +26781,7 @@
       </c>
       <c r="K396" s="2"/>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -27121,7 +27121,7 @@
         <v>1078</v>
       </c>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -27423,7 +27423,7 @@
       </c>
       <c r="K409" s="2"/>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -27569,7 +27569,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -28049,7 +28049,7 @@
         <v>1079</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -28265,7 +28265,7 @@
         <v>1080</v>
       </c>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -28477,7 +28477,7 @@
         <v>1081</v>
       </c>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -28625,7 +28625,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -28789,7 +28789,7 @@
         <v>1082</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -28955,7 +28955,7 @@
         <v>1083</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -29121,7 +29121,7 @@
         <v>1084</v>
       </c>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -29287,7 +29287,7 @@
         <v>1085</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -29449,7 +29449,7 @@
         <v>1086</v>
       </c>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -29707,7 +29707,7 @@
         <v>1087</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -29965,7 +29965,7 @@
         <v>1087</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -30221,7 +30221,7 @@
       </c>
       <c r="K462" s="2"/>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -30423,7 +30423,7 @@
         <v>1088</v>
       </c>
       <c r="L466" s="4"/>
-      <c r="M466" s="2" t="s">
+      <c r="M466" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N466" s="2" t="s">
@@ -30693,7 +30693,7 @@
         <v>1079</v>
       </c>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -30909,7 +30909,7 @@
         <v>1080</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -31125,7 +31125,7 @@
         <v>1087</v>
       </c>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -31395,7 +31395,7 @@
         <v>1089</v>
       </c>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -31557,7 +31557,7 @@
         <v>1090</v>
       </c>
       <c r="L487" s="4"/>
-      <c r="M487" s="2" t="s">
+      <c r="M487" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N487" s="2" t="s">
@@ -31719,7 +31719,7 @@
         <v>1091</v>
       </c>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -31985,7 +31985,7 @@
         <v>1092</v>
       </c>
       <c r="L495" s="4"/>
-      <c r="M495" s="2" t="s">
+      <c r="M495" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N495" s="2" t="s">
@@ -32289,7 +32289,7 @@
         <v>1093</v>
       </c>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -32437,7 +32437,7 @@
       </c>
       <c r="K504" s="2"/>
       <c r="L504" s="4"/>
-      <c r="M504" s="2" t="s">
+      <c r="M504" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N504" s="2" t="s">
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K507" s="2"/>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -32741,7 +32741,7 @@
       </c>
       <c r="K510" s="2"/>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="K514" s="2"/>
       <c r="L514" s="4"/>
-      <c r="M514" s="2" t="s">
+      <c r="M514" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N514" s="2" t="s">
@@ -33099,7 +33099,7 @@
       </c>
       <c r="K517" s="2"/>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -33421,7 +33421,7 @@
         <v>1094</v>
       </c>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -33569,7 +33569,7 @@
       </c>
       <c r="K526" s="2"/>
       <c r="L526" s="4"/>
-      <c r="M526" s="2" t="s">
+      <c r="M526" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N526" s="2" t="s">
@@ -33731,7 +33731,7 @@
       </c>
       <c r="K529" s="2"/>
       <c r="L529" s="4"/>
-      <c r="M529" s="2" t="s">
+      <c r="M529" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N529" s="2" t="s">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="4"/>
-      <c r="M533" s="2" t="s">
+      <c r="M533" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N533" s="2" t="s">
@@ -34193,7 +34193,7 @@
       </c>
       <c r="K538" s="2"/>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="K545" s="2"/>
       <c r="L545" s="4"/>
-      <c r="M545" s="2" t="s">
+      <c r="M545" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N545" s="2" t="s">
@@ -34691,7 +34691,7 @@
         <v>1095</v>
       </c>
       <c r="L548" s="4"/>
-      <c r="M548" s="2" t="s">
+      <c r="M548" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N548" s="2" t="s">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -35003,7 +35003,7 @@
         <v>1096</v>
       </c>
       <c r="L554" s="4"/>
-      <c r="M554" s="2" t="s">
+      <c r="M554" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N554" s="2" t="s">
@@ -35159,7 +35159,7 @@
       </c>
       <c r="K557" s="2"/>
       <c r="L557" s="4"/>
-      <c r="M557" s="2" t="s">
+      <c r="M557" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N557" s="2" t="s">
@@ -35305,7 +35305,7 @@
       </c>
       <c r="K560" s="2"/>
       <c r="L560" s="4"/>
-      <c r="M560" s="2" t="s">
+      <c r="M560" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N560" s="2" t="s">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -35895,7 +35895,7 @@
       </c>
       <c r="K571" s="2"/>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -36305,7 +36305,7 @@
         <v>1097</v>
       </c>
       <c r="L579" s="4"/>
-      <c r="M579" s="2" t="s">
+      <c r="M579" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N579" s="2" t="s">
@@ -36453,7 +36453,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -36617,7 +36617,7 @@
         <v>1098</v>
       </c>
       <c r="L585" s="4"/>
-      <c r="M585" s="2" t="s">
+      <c r="M585" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N585" s="2" t="s">
@@ -36773,7 +36773,7 @@
       </c>
       <c r="K588" s="2"/>
       <c r="L588" s="4"/>
-      <c r="M588" s="2" t="s">
+      <c r="M588" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N588" s="2" t="s">
@@ -37625,7 +37625,7 @@
       </c>
       <c r="K604" s="2"/>
       <c r="L604" s="4"/>
-      <c r="M604" s="2" t="s">
+      <c r="M604" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N604" s="2" t="s">
@@ -37785,7 +37785,7 @@
         <v>1100</v>
       </c>
       <c r="L607" s="4"/>
-      <c r="M607" s="2" t="s">
+      <c r="M607" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N607" s="2" t="s">
@@ -37999,7 +37999,7 @@
       </c>
       <c r="K611" s="2"/>
       <c r="L611" s="4"/>
-      <c r="M611" s="2" t="s">
+      <c r="M611" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N611" s="2" t="s">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -38371,7 +38371,7 @@
         <v>1101</v>
       </c>
       <c r="L618" s="4"/>
-      <c r="M618" s="2" t="s">
+      <c r="M618" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N618" s="2" t="s">
@@ -38675,7 +38675,7 @@
         <v>1102</v>
       </c>
       <c r="L624" s="4"/>
-      <c r="M624" s="2" t="s">
+      <c r="M624" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N624" s="2" t="s">
@@ -38825,7 +38825,7 @@
         <v>1103</v>
       </c>
       <c r="L627" s="4"/>
-      <c r="M627" s="2" t="s">
+      <c r="M627" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N627" s="2" t="s">
@@ -39043,7 +39043,7 @@
       </c>
       <c r="K631" s="2"/>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -39207,7 +39207,7 @@
         <v>1105</v>
       </c>
       <c r="L634" s="4"/>
-      <c r="M634" s="2" t="s">
+      <c r="M634" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N634" s="2" t="s">
@@ -39367,7 +39367,7 @@
       </c>
       <c r="K637" s="2"/>
       <c r="L637" s="4"/>
-      <c r="M637" s="2" t="s">
+      <c r="M637" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N637" s="2" t="s">
@@ -39585,7 +39585,7 @@
         <v>1107</v>
       </c>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -39997,7 +39997,7 @@
         <v>1108</v>
       </c>
       <c r="L649" s="4"/>
-      <c r="M649" s="2" t="s">
+      <c r="M649" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N649" s="2" t="s">
@@ -40197,7 +40197,7 @@
         <v>1077</v>
       </c>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -40397,7 +40397,7 @@
         <v>1109</v>
       </c>
       <c r="L657" s="4"/>
-      <c r="M657" s="2" t="s">
+      <c r="M657" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N657" s="2" t="s">
@@ -40755,7 +40755,7 @@
         <v>1110</v>
       </c>
       <c r="L664" s="4"/>
-      <c r="M664" s="2" t="s">
+      <c r="M664" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N664" s="2" t="s">
@@ -40955,7 +40955,7 @@
         <v>1111</v>
       </c>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -41103,7 +41103,7 @@
       </c>
       <c r="K671" s="2"/>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -41257,7 +41257,7 @@
       </c>
       <c r="K674" s="2"/>
       <c r="L674" s="4"/>
-      <c r="M674" s="2" t="s">
+      <c r="M674" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N674" s="2" t="s">
@@ -41405,7 +41405,7 @@
         <v>1112</v>
       </c>
       <c r="L677" s="4"/>
-      <c r="M677" s="2" t="s">
+      <c r="M677" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N677" s="2" t="s">
@@ -41565,7 +41565,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -41887,7 +41887,7 @@
         <v>1114</v>
       </c>
       <c r="L686" s="4"/>
-      <c r="M686" s="2" t="s">
+      <c r="M686" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N686" s="2" t="s">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K689" s="2"/>
       <c r="L689" s="4"/>
-      <c r="M689" s="2" t="s">
+      <c r="M689" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N689" s="2" t="s">
@@ -42189,7 +42189,7 @@
       </c>
       <c r="K692" s="2"/>
       <c r="L692" s="4"/>
-      <c r="M692" s="2" t="s">
+      <c r="M692" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N692" s="2" t="s">
@@ -42335,7 +42335,7 @@
       </c>
       <c r="K695" s="2"/>
       <c r="L695" s="4"/>
-      <c r="M695" s="2" t="s">
+      <c r="M695" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N695" s="2" t="s">
@@ -42493,7 +42493,7 @@
       </c>
       <c r="K698" s="2"/>
       <c r="L698" s="4"/>
-      <c r="M698" s="2" t="s">
+      <c r="M698" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N698" s="2" t="s">
@@ -42865,7 +42865,7 @@
         <v>1111</v>
       </c>
       <c r="L705" s="4"/>
-      <c r="M705" s="2" t="s">
+      <c r="M705" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N705" s="2" t="s">
@@ -43013,7 +43013,7 @@
       </c>
       <c r="K708" s="2"/>
       <c r="L708" s="4"/>
-      <c r="M708" s="2" t="s">
+      <c r="M708" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N708" s="2" t="s">
@@ -43167,7 +43167,7 @@
       </c>
       <c r="K711" s="2"/>
       <c r="L711" s="4"/>
-      <c r="M711" s="2" t="s">
+      <c r="M711" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N711" s="2" t="s">
@@ -43313,7 +43313,7 @@
       </c>
       <c r="K714" s="2"/>
       <c r="L714" s="4"/>
-      <c r="M714" s="2" t="s">
+      <c r="M714" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N714" s="2" t="s">
@@ -43471,7 +43471,7 @@
       </c>
       <c r="K717" s="2"/>
       <c r="L717" s="4"/>
-      <c r="M717" s="2" t="s">
+      <c r="M717" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N717" s="2" t="s">
@@ -43627,7 +43627,7 @@
         <v>1111</v>
       </c>
       <c r="L720" s="4"/>
-      <c r="M720" s="2" t="s">
+      <c r="M720" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N720" s="2" t="s">
@@ -43917,7 +43917,7 @@
       </c>
       <c r="K726" s="2"/>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -44077,7 +44077,7 @@
         <v>1116</v>
       </c>
       <c r="L729" s="4"/>
-      <c r="M729" s="2" t="s">
+      <c r="M729" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N729" s="2" t="s">
@@ -44225,7 +44225,7 @@
       </c>
       <c r="K732" s="2"/>
       <c r="L732" s="4"/>
-      <c r="M732" s="2" t="s">
+      <c r="M732" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N732" s="2" t="s">
@@ -44383,7 +44383,7 @@
       </c>
       <c r="K735" s="2"/>
       <c r="L735" s="4"/>
-      <c r="M735" s="2" t="s">
+      <c r="M735" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N735" s="2" t="s">
@@ -44541,7 +44541,7 @@
       </c>
       <c r="K738" s="2"/>
       <c r="L738" s="4"/>
-      <c r="M738" s="2" t="s">
+      <c r="M738" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N738" s="2" t="s">
@@ -44687,7 +44687,7 @@
       </c>
       <c r="K741" s="2"/>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -44847,7 +44847,7 @@
         <v>1117</v>
       </c>
       <c r="L744" s="4"/>
-      <c r="M744" s="2" t="s">
+      <c r="M744" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N744" s="2" t="s">
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K747" s="2"/>
       <c r="L747" s="4"/>
-      <c r="M747" s="2" t="s">
+      <c r="M747" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N747" s="2" t="s">
@@ -45153,7 +45153,7 @@
       </c>
       <c r="K750" s="2"/>
       <c r="L750" s="4"/>
-      <c r="M750" s="2" t="s">
+      <c r="M750" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N750" s="2" t="s">
@@ -45517,7 +45517,7 @@
         <v>1120</v>
       </c>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N757" s="2" t="s">
@@ -45665,7 +45665,7 @@
       </c>
       <c r="K760" s="2"/>
       <c r="L760" s="4"/>
-      <c r="M760" s="2" t="s">
+      <c r="M760" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N760" s="2" t="s">
@@ -45823,7 +45823,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -46065,7 +46065,7 @@
       </c>
       <c r="K768" s="2"/>
       <c r="L768" s="4"/>
-      <c r="M768" s="2" t="s">
+      <c r="M768" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N768" s="2" t="s">
@@ -46419,7 +46419,7 @@
       </c>
       <c r="K775" s="2"/>
       <c r="L775" s="4"/>
-      <c r="M775" s="2" t="s">
+      <c r="M775" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N775" s="2" t="s">
@@ -46841,7 +46841,7 @@
         <v>1062</v>
       </c>
       <c r="L783" s="4"/>
-      <c r="M783" s="2" t="s">
+      <c r="M783" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N783" s="2" t="s">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K789" s="2"/>
       <c r="L789" s="4"/>
-      <c r="M789" s="2" t="s">
+      <c r="M789" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N789" s="2" t="s">
@@ -47313,7 +47313,7 @@
       </c>
       <c r="K792" s="2"/>
       <c r="L792" s="4"/>
-      <c r="M792" s="2" t="s">
+      <c r="M792" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N792" s="2" t="s">
@@ -47471,7 +47471,7 @@
       </c>
       <c r="K795" s="2"/>
       <c r="L795" s="4"/>
-      <c r="M795" s="2" t="s">
+      <c r="M795" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N795" s="2" t="s">
@@ -47889,7 +47889,7 @@
       </c>
       <c r="K803" s="2"/>
       <c r="L803" s="4"/>
-      <c r="M803" s="2" t="s">
+      <c r="M803" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N803" s="2"/>
